--- a/bim2sim/task/bps/Materialmenge.xlsx
+++ b/bim2sim/task/bps/Materialmenge.xlsx
@@ -469,143 +469,143 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>[0.3, 4.07, 0.0] - [0.3, 3.21, 0.0]</t>
+          <t>[11.7, 0.3, 0.0] - [10.21, 0.3, 0.0]</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.87744818709352</v>
+        <v>74.3498613316862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1425021080308087</v>
+        <v>0.1007642069219628</v>
       </c>
       <c r="D2" t="n">
         <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>47.84688995215311</v>
+        <v>23.92344497607656</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8600000000000003</v>
+        <v>1.489999999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>[8.79, 9.7, 0.0] - [8.79, 9.7, 0.8]</t>
+          <t>(4.44, 6.5, 0.0) - (3.86, 6.5, 0.0)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.83877726892486</v>
+        <v>28.80616570133845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2015284138439257</v>
+        <v>0.3341970666578831</v>
       </c>
       <c r="D3" t="n">
         <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>95.69377990430623</v>
+        <v>263.1578947368421</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8</v>
+        <v>0.5800000000000005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>[8.79, 9.7, 0.0] - [10.79, 9.7, 0.0]</t>
+          <t>(4.44, 6.5, 0.0) - (4.44, 9.7, 0.0)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59694317231215</v>
+        <v>158.9305693866947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2015284138439257</v>
+        <v>0.3341970666578831</v>
       </c>
       <c r="D4" t="n">
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>95.69377990430623</v>
+        <v>263.1578947368421</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3.199999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>[11.7, 1.21, 0.0] - [11.7, 0.3, 0.0]</t>
+          <t>(4.44, 6.5, 0.0) - (4.44, 6.5, 2.7)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.37032308169196</v>
+        <v>134.0976679200237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1425021080308087</v>
+        <v>0.3341970666578831</v>
       </c>
       <c r="D5" t="n">
         <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>47.84688995215311</v>
+        <v>263.1578947368421</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9099999999999999</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>[11.7, 1.21, 0.0] - [11.7, 1.21, 0.8]</t>
+          <t>[3.86, 9.7, 0.0] - [3.05, 9.7, 0.0]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.88599831357536</v>
+        <v>40.41838099239321</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1425021080308087</v>
+        <v>0.1007642069219628</v>
       </c>
       <c r="D6" t="n">
         <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>47.84688995215311</v>
+        <v>23.92344497607656</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>[3.05, 9.7, 0.0] - [1.05, 9.7, 0.0]</t>
+          <t>[11.7, 6.5, 0.0] - [11.7, 4.07, 0.0]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.79847158615605</v>
+        <v>121.0758951958851</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1007642069219628</v>
+        <v>0.1745287259732232</v>
       </c>
       <c r="D7" t="n">
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>23.92344497607656</v>
+        <v>71.77033492822967</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>[0.3, 6.5, 0.0] - [0.3, 5.99, 0.0]</t>
+          <t>[11.7, 6.5, 0.0] - [11.7, 6.5, 0.8]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.41099034975364</v>
+        <v>39.86037701922142</v>
       </c>
       <c r="C8" t="n">
         <v>0.1745287259732232</v>
@@ -617,39 +617,39 @@
         <v>71.77033492822967</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5099999999999998</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>[0.3, 6.5, 0.0] - [0.3, 6.5, 0.8]</t>
+          <t>[0.3, 5.5, 0.0] - [0.3, 4.5, 0.0]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.86037701922142</v>
+        <v>49.85749789196919</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1745287259732232</v>
+        <v>0.1425021080308087</v>
       </c>
       <c r="D9" t="n">
         <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>71.77033492822967</v>
+        <v>47.84688995215311</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>[0.3, 5.81, 0.0] - [0.3, 5.75, 0.0]</t>
+          <t>[0.3, 3.21, 0.0] - [0.3, 1.21, 0.0]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.991449873518132</v>
+        <v>99.71499578393838</v>
       </c>
       <c r="C10" t="n">
         <v>0.1425021080308087</v>
@@ -661,127 +661,127 @@
         <v>47.84688995215311</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05999999999999961</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>[11.7, 8.5, 0.0] - [11.7, 6.5, 0.0]</t>
+          <t>[1.05, 9.7, 0.0] - [1.05, 9.7, 0.8]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.65094254805355</v>
+        <v>39.91938863446243</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1745287259732232</v>
+        <v>0.1007642069219628</v>
       </c>
       <c r="D11" t="n">
         <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>71.77033492822967</v>
+        <v>23.92344497607656</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>[3.86, 9.7, 0.0] - [3.05, 9.7, 0.0]</t>
+          <t>(4.44, 9.7, 0.0) - [3.86, 9.7, 0.0]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.41838099239321</v>
+        <v>28.85684388304891</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1007642069219628</v>
+        <v>0.2468208912950297</v>
       </c>
       <c r="D12" t="n">
         <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>23.92344497607656</v>
+        <v>143.5406698564593</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.5800000000000005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>[11.7, 6.5, 0.0] - [11.7, 6.5, 0.8]</t>
+          <t>(4.44, 9.7, 0.0) - [4.66, 9.7, 0.0]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.86037701922142</v>
+        <v>10.94569940391508</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1745287259732232</v>
+        <v>0.2468208912950297</v>
       </c>
       <c r="D13" t="n">
         <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>71.77033492822967</v>
+        <v>143.5406698564593</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8</v>
+        <v>0.2199999999999998</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>[11.7, 6.5, 0.0] - [11.7, 4.07, 0.0]</t>
+          <t>[7.47, 9.7, 0.0] - [8.79, 9.7, 0.0]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>121.0758951958851</v>
+        <v>65.73398249372599</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1745287259732232</v>
+        <v>0.2015284138439257</v>
       </c>
       <c r="D14" t="n">
         <v>50</v>
       </c>
       <c r="E14" t="n">
-        <v>71.77033492822967</v>
+        <v>95.69377990430623</v>
       </c>
       <c r="F14" t="n">
-        <v>2.43</v>
+        <v>1.319999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>[0.3, 5.99, 0.0] - [0.3, 5.81, 0.0]</t>
+          <t>[10.79, 9.7, 0.0] - [11.7, 9.7, 0.0]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.974349620554484</v>
+        <v>45.34117885936437</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1425021080308087</v>
+        <v>0.1745287259732232</v>
       </c>
       <c r="D15" t="n">
         <v>50</v>
       </c>
       <c r="E15" t="n">
-        <v>47.84688995215311</v>
+        <v>71.77033492822967</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1800000000000006</v>
+        <v>0.9100000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>[11.7, 9.7, 0.0] - [11.7, 8.5, 0.0]</t>
+          <t>[11.7, 8.5, 0.0] - [11.7, 6.5, 0.0]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.7905655288321</v>
+        <v>99.65094254805355</v>
       </c>
       <c r="C16" t="n">
         <v>0.1745287259732232</v>
@@ -793,61 +793,61 @@
         <v>71.77033492822967</v>
       </c>
       <c r="F16" t="n">
-        <v>1.199999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>[0.3, 1.21, 0.0] - [0.3, 0.3, 0.0]</t>
+          <t>[4.66, 9.7, 0.0] - [4.66, 9.7, 0.8]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>45.37032308169196</v>
+        <v>39.81974750689891</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1425021080308087</v>
+        <v>0.2253156163763637</v>
       </c>
       <c r="D17" t="n">
         <v>50</v>
       </c>
       <c r="E17" t="n">
-        <v>47.84688995215311</v>
+        <v>119.6172248803828</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9099999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>[0.3, 1.21, 0.0] - [0.3, 1.21, 0.95]</t>
+          <t>[4.66, 9.7, 0.0] - [6.66, 9.7, 0.0]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>47.36462299737072</v>
+        <v>99.54936876724727</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1425021080308087</v>
+        <v>0.2253156163763637</v>
       </c>
       <c r="D18" t="n">
         <v>50</v>
       </c>
       <c r="E18" t="n">
-        <v>47.84688995215311</v>
+        <v>119.6172248803828</v>
       </c>
       <c r="F18" t="n">
-        <v>0.95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>[11.7, 4.07, 0.0] - [11.7, 3.21, 0.0]</t>
+          <t>[0.3, 4.5, 0.0] - [0.3, 4.07, 0.0]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.87744818709352</v>
+        <v>21.43872409354674</v>
       </c>
       <c r="C19" t="n">
         <v>0.1425021080308087</v>
@@ -859,215 +859,215 @@
         <v>47.84688995215311</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8600000000000003</v>
+        <v>0.4299999999999997</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>[8.21, 0.3, 0.0] - [8.21, 0.3, 0.8]</t>
+          <t>(3.86, 6.5, 0.0) - [0.3, 6.5, 0.0]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>39.91938863446243</v>
+        <v>177.3786777355353</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1007642069219628</v>
+        <v>0.1745287259732232</v>
       </c>
       <c r="D20" t="n">
         <v>50</v>
       </c>
       <c r="E20" t="n">
-        <v>23.92344497607656</v>
+        <v>71.77033492822967</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>[1.05, 9.7, 0.0] - [1.05, 9.7, 0.8]</t>
+          <t>[0.3, 5.81, 0.0] - [0.3, 5.75, 0.0]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39.91938863446243</v>
+        <v>2.991449873518132</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1007642069219628</v>
+        <v>0.1425021080308087</v>
       </c>
       <c r="D21" t="n">
         <v>50</v>
       </c>
       <c r="E21" t="n">
-        <v>23.92344497607656</v>
+        <v>47.84688995215311</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8</v>
+        <v>0.05999999999999961</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>[7.47, 9.7, 0.0] - [8.79, 9.7, 0.0]</t>
+          <t>[10.21, 0.3, 0.0] - [8.21, 0.3, 0.0]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.73398249372599</v>
+        <v>99.79847158615607</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2015284138439257</v>
+        <v>0.1007642069219628</v>
       </c>
       <c r="D22" t="n">
         <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>95.69377990430623</v>
+        <v>23.92344497607656</v>
       </c>
       <c r="F22" t="n">
-        <v>1.319999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>[6.66, 9.7, 0.0] - [7.47, 9.7, 0.0]</t>
+          <t>[0.3, 5.75, 0.0] - [0.3, 5.5, 0.0]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.3367619847864</v>
+        <v>12.4643744729923</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2015284138439257</v>
+        <v>0.1425021080308087</v>
       </c>
       <c r="D23" t="n">
         <v>50</v>
       </c>
       <c r="E23" t="n">
-        <v>95.69377990430623</v>
+        <v>47.84688995215311</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8099999999999996</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>(4.44, 6.5, 0.0) - (3.86, 6.5, 0.0)</t>
+          <t>[11.7, 4.07, 0.0] - [11.7, 3.21, 0.0]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28.80616570133845</v>
+        <v>42.87744818709352</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3341970666578831</v>
+        <v>0.1425021080308087</v>
       </c>
       <c r="D24" t="n">
         <v>50</v>
       </c>
       <c r="E24" t="n">
-        <v>263.1578947368421</v>
+        <v>47.84688995215311</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5800000000000005</v>
+        <v>0.8600000000000003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>(4.44, 6.5, 0.0) - (4.44, 9.7, 0.0)</t>
+          <t>[8.79, 9.7, 0.0] - [10.79, 9.7, 0.0]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>158.9305693866947</v>
+        <v>99.59694317231215</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3341970666578831</v>
+        <v>0.2015284138439257</v>
       </c>
       <c r="D25" t="n">
         <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>263.1578947368421</v>
+        <v>95.69377990430623</v>
       </c>
       <c r="F25" t="n">
-        <v>3.199999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>(4.44, 6.5, 0.0) - (4.44, 6.5, 2.7)</t>
+          <t>[8.79, 9.7, 0.0] - [8.79, 9.7, 0.8]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>134.0976679200237</v>
+        <v>39.83877726892486</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3341970666578831</v>
+        <v>0.2015284138439257</v>
       </c>
       <c r="D26" t="n">
         <v>50</v>
       </c>
       <c r="E26" t="n">
-        <v>263.1578947368421</v>
+        <v>95.69377990430623</v>
       </c>
       <c r="F26" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>[0.3, 5.75, 0.0] - [0.3, 5.5, 0.0]</t>
+          <t>[8.21, 0.3, 0.0] - [8.21, 0.3, 0.8]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12.4643744729923</v>
+        <v>39.91938863446243</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1425021080308087</v>
+        <v>0.1007642069219628</v>
       </c>
       <c r="D27" t="n">
         <v>50</v>
       </c>
       <c r="E27" t="n">
-        <v>47.84688995215311</v>
+        <v>23.92344497607656</v>
       </c>
       <c r="F27" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>[1.79, 0.3, 0.0] - [1.79, 0.3, 0.95]</t>
+          <t>[11.7, 1.21, 0.0] - [11.7, 0.3, 0.0]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.40427400342413</v>
+        <v>45.37032308169196</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1007642069219628</v>
+        <v>0.1425021080308087</v>
       </c>
       <c r="D28" t="n">
         <v>50</v>
       </c>
       <c r="E28" t="n">
-        <v>23.92344497607656</v>
+        <v>47.84688995215311</v>
       </c>
       <c r="F28" t="n">
-        <v>0.95</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>[0.3, 3.21, 0.0] - [0.3, 1.21, 0.0]</t>
+          <t>[11.7, 1.21, 0.0] - [11.7, 1.21, 0.8]</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.71499578393838</v>
+        <v>39.88599831357536</v>
       </c>
       <c r="C29" t="n">
         <v>0.1425021080308087</v>
@@ -1079,48 +1079,48 @@
         <v>47.84688995215311</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>[4.66, 9.7, 0.0] - [6.66, 9.7, 0.0]</t>
+          <t>[1.79, 0.3, 0.0] - [1.79, 0.3, 0.95]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.54936876724727</v>
+        <v>47.40427400342413</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2253156163763637</v>
+        <v>0.1007642069219628</v>
       </c>
       <c r="D30" t="n">
         <v>50</v>
       </c>
       <c r="E30" t="n">
-        <v>119.6172248803828</v>
+        <v>23.92344497607656</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>[4.66, 9.7, 0.0] - [4.66, 9.7, 0.8]</t>
+          <t>[0.3, 6.5, 0.0] - [0.3, 6.5, 0.8]</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39.81974750689891</v>
+        <v>39.86037701922142</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2253156163763637</v>
+        <v>0.1745287259732232</v>
       </c>
       <c r="D31" t="n">
         <v>50</v>
       </c>
       <c r="E31" t="n">
-        <v>119.6172248803828</v>
+        <v>71.77033492822967</v>
       </c>
       <c r="F31" t="n">
         <v>0.8</v>
@@ -1129,55 +1129,55 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>(4.44, 9.7, 0.0) - [3.86, 9.7, 0.0]</t>
+          <t>[0.3, 6.5, 0.0] - [0.3, 5.99, 0.0]</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>28.85684388304891</v>
+        <v>25.41099034975364</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2468208912950297</v>
+        <v>0.1745287259732232</v>
       </c>
       <c r="D32" t="n">
         <v>50</v>
       </c>
       <c r="E32" t="n">
-        <v>143.5406698564593</v>
+        <v>71.77033492822967</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5800000000000005</v>
+        <v>0.5099999999999998</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>(4.44, 9.7, 0.0) - [4.66, 9.7, 0.0]</t>
+          <t>[6.66, 9.7, 0.0] - [7.47, 9.7, 0.0]</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.94569940391508</v>
+        <v>40.3367619847864</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2468208912950297</v>
+        <v>0.2015284138439257</v>
       </c>
       <c r="D33" t="n">
         <v>50</v>
       </c>
       <c r="E33" t="n">
-        <v>143.5406698564593</v>
+        <v>95.69377990430623</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2199999999999998</v>
+        <v>0.8099999999999996</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>[11.7, 3.21, 0.0] - [11.7, 1.21, 0.0]</t>
+          <t>[0.3, 5.99, 0.0] - [0.3, 5.81, 0.0]</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.71499578393838</v>
+        <v>8.974349620554484</v>
       </c>
       <c r="C34" t="n">
         <v>0.1425021080308087</v>
@@ -1189,171 +1189,171 @@
         <v>47.84688995215311</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0.1800000000000006</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>[11.7, 0.3, 0.0] - [10.21, 0.3, 0.0]</t>
+          <t>[11.7, 3.21, 0.0] - [11.7, 1.21, 0.0]</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>74.3498613316862</v>
+        <v>99.71499578393838</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1007642069219628</v>
+        <v>0.1425021080308087</v>
       </c>
       <c r="D35" t="n">
         <v>50</v>
       </c>
       <c r="E35" t="n">
-        <v>23.92344497607656</v>
+        <v>47.84688995215311</v>
       </c>
       <c r="F35" t="n">
-        <v>1.489999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>[0.3, 5.5, 0.0] - [0.3, 4.5, 0.0]</t>
+          <t>[11.7, 9.7, 0.0] - [11.7, 8.5, 0.0]</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49.85749789196919</v>
+        <v>59.7905655288321</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1425021080308087</v>
+        <v>0.1745287259732232</v>
       </c>
       <c r="D36" t="n">
         <v>50</v>
       </c>
       <c r="E36" t="n">
-        <v>47.84688995215311</v>
+        <v>71.77033492822967</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>1.199999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>[0.3, 4.5, 0.0] - [0.3, 4.07, 0.0]</t>
+          <t>[0.3, 0.3, 0.0] - [1.79, 0.3, 0.0]</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.43872409354674</v>
+        <v>74.34986133168627</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1425021080308087</v>
+        <v>0.1007642069219628</v>
       </c>
       <c r="D37" t="n">
         <v>50</v>
       </c>
       <c r="E37" t="n">
-        <v>47.84688995215311</v>
+        <v>23.92344497607656</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4299999999999997</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>[10.21, 0.3, 0.0] - [8.21, 0.3, 0.0]</t>
+          <t>[0.3, 4.07, 0.0] - [0.3, 3.21, 0.0]</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.79847158615607</v>
+        <v>42.87744818709352</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1007642069219628</v>
+        <v>0.1425021080308087</v>
       </c>
       <c r="D38" t="n">
         <v>50</v>
       </c>
       <c r="E38" t="n">
-        <v>23.92344497607656</v>
+        <v>47.84688995215311</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>0.8600000000000003</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>[10.79, 9.7, 0.0] - [11.7, 9.7, 0.0]</t>
+          <t>[3.05, 9.7, 0.0] - [1.05, 9.7, 0.0]</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>45.34117885936437</v>
+        <v>99.79847158615605</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1745287259732232</v>
+        <v>0.1007642069219628</v>
       </c>
       <c r="D39" t="n">
         <v>50</v>
       </c>
       <c r="E39" t="n">
-        <v>71.77033492822967</v>
+        <v>23.92344497607656</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9100000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>(3.86, 6.5, 0.0) - [0.3, 6.5, 0.0]</t>
+          <t>[0.3, 1.21, 0.0] - [0.3, 1.21, 0.95]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.3786777355353</v>
+        <v>47.36462299737072</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1745287259732232</v>
+        <v>0.1425021080308087</v>
       </c>
       <c r="D40" t="n">
         <v>50</v>
       </c>
       <c r="E40" t="n">
-        <v>71.77033492822967</v>
+        <v>47.84688995215311</v>
       </c>
       <c r="F40" t="n">
-        <v>3.56</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>[0.3, 0.3, 0.0] - [1.79, 0.3, 0.0]</t>
+          <t>[0.3, 1.21, 0.0] - [0.3, 0.3, 0.0]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.34986133168627</v>
+        <v>45.37032308169196</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1007642069219628</v>
+        <v>0.1425021080308087</v>
       </c>
       <c r="D41" t="n">
         <v>50</v>
       </c>
       <c r="E41" t="n">
-        <v>23.92344497607656</v>
+        <v>47.84688995215311</v>
       </c>
       <c r="F41" t="n">
-        <v>1.49</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>(11.77, 6.5, 2.7) - [11.77, 5.5, 2.7]</t>
+          <t>[11.7, 4.5, 2.7] - [11.7, 4.5, 3.5]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.89923579307803</v>
+        <v>39.91938863446242</v>
       </c>
       <c r="C42" t="n">
         <v>0.1007642069219628</v>
@@ -1365,13 +1365,13 @@
         <v>23.92344497607656</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0.7999999999999998</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>[11.77, 5.5, 2.7] - [11.77, 4.5, 2.7]</t>
+          <t>[0.08, 5.5, 2.7] - [0.08, 4.5, 2.7]</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1393,11 +1393,11 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>(0.08, 6.5, 2.7) - [0.08, 5.5, 2.7]</t>
+          <t>[0.3, 4.5, 2.7] - [0.3, 4.5, 3.5]</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>49.89923579307803</v>
+        <v>39.91938863446242</v>
       </c>
       <c r="C44" t="n">
         <v>0.1007642069219628</v>
@@ -1409,17 +1409,17 @@
         <v>23.92344497607656</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0.7999999999999998</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>[11.77, 4.5, 2.7] - [11.7, 4.5, 2.7]</t>
+          <t>(0.08, 6.5, 2.7) - [0.08, 5.5, 2.7]</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.492946505515476</v>
+        <v>49.89923579307803</v>
       </c>
       <c r="C45" t="n">
         <v>0.1007642069219628</v>
@@ -1431,39 +1431,39 @@
         <v>23.92344497607656</v>
       </c>
       <c r="F45" t="n">
-        <v>0.07000000000000028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>[0.08, 5.5, 2.7] - [0.08, 4.5, 2.7]</t>
+          <t>(4.44, 6.5, 2.7) - (0.08, 6.5, 2.7)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.89923579307803</v>
+        <v>217.3786908089857</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1007642069219628</v>
+        <v>0.1425021080308087</v>
       </c>
       <c r="D46" t="n">
         <v>50</v>
       </c>
       <c r="E46" t="n">
-        <v>23.92344497607656</v>
+        <v>47.84688995215311</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>(4.44, 6.5, 2.7) - (0.08, 6.5, 2.7)</t>
+          <t>(4.44, 6.5, 2.7) - (11.77, 6.5, 2.7)</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>217.3786908089857</v>
+        <v>365.4554595481341</v>
       </c>
       <c r="C47" t="n">
         <v>0.1425021080308087</v>
@@ -1475,39 +1475,39 @@
         <v>47.84688995215311</v>
       </c>
       <c r="F47" t="n">
-        <v>4.36</v>
+        <v>7.329999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>(4.44, 6.5, 2.7) - (11.77, 6.5, 2.7)</t>
+          <t>[11.77, 5.5, 2.7] - [11.77, 4.5, 2.7]</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>365.4554595481341</v>
+        <v>49.89923579307803</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1425021080308087</v>
+        <v>0.1007642069219628</v>
       </c>
       <c r="D48" t="n">
         <v>50</v>
       </c>
       <c r="E48" t="n">
-        <v>47.84688995215311</v>
+        <v>23.92344497607656</v>
       </c>
       <c r="F48" t="n">
-        <v>7.329999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>[11.7, 4.5, 2.7] - [11.7, 4.5, 3.5]</t>
+          <t>(11.77, 6.5, 2.7) - [11.77, 5.5, 2.7]</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>39.91938863446242</v>
+        <v>49.89923579307803</v>
       </c>
       <c r="C49" t="n">
         <v>0.1007642069219628</v>
@@ -1519,17 +1519,17 @@
         <v>23.92344497607656</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>[0.08, 4.5, 2.7] - [0.3, 4.5, 2.7]</t>
+          <t>[11.77, 4.5, 2.7] - [11.7, 4.5, 2.7]</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>10.97783187447717</v>
+        <v>3.492946505515476</v>
       </c>
       <c r="C50" t="n">
         <v>0.1007642069219628</v>
@@ -1541,17 +1541,17 @@
         <v>23.92344497607656</v>
       </c>
       <c r="F50" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000028</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>[0.3, 4.5, 2.7] - [0.3, 4.5, 3.5]</t>
+          <t>[0.08, 4.5, 2.7] - [0.3, 4.5, 2.7]</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>39.91938863446242</v>
+        <v>10.97783187447717</v>
       </c>
       <c r="C51" t="n">
         <v>0.1007642069219628</v>
@@ -1563,7 +1563,7 @@
         <v>23.92344497607656</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
